--- a/results/coverage_analysis_evosuite.xlsx
+++ b/results/coverage_analysis_evosuite.xlsx
@@ -333,11 +333,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="47.6530612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="75.3061224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.280612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.5102040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="57.7959183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="97.4030612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.3163265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
